--- a/biology/Zoologie/Heniochus_varius/Heniochus_varius.xlsx
+++ b/biology/Zoologie/Heniochus_varius/Heniochus_varius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heniochus varius, communément nommé poisson-cocher noir[1], est un poisson osseux de petite taille appartenant à la famille des Chaetodontidae natif de la partie centrale du bassin Indo-Pacifique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heniochus varius, communément nommé poisson-cocher noir, est un poisson osseux de petite taille appartenant à la famille des Chaetodontidae natif de la partie centrale du bassin Indo-Pacifique.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le poisson-cocher noir est un poisson de petite taille qui peut atteindre une longueur maximale de 19 cm[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poisson-cocher noir est un poisson de petite taille qui peut atteindre une longueur maximale de 19 cm.
 Son corps est compressé latéralement, les premiers rayons de sa nageoire dorsale s'étirent légèrement en un filament ressemblant à une plume. 
 La teinte de fond du corps est chocolat à noir avec deux bandes blanches.
 Les deux bandes blanches sont légèrement obliques, leur tracé est convergent mais elles ne sont pas sécantes. La première part du haut de la zone ventrale, passe entre l’œil et l'épaule de la nageoire pectorale et se termine aux premiers rayons de la nageoire dorsale. 
@@ -552,10 +566,12 @@
           <t>Distribution &amp; habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le poisson-cocher noir est présent dans les eaux tropicales et subtropicales de la zone centrale du bassin Indo-Pacifique soit de l'Indonésie aux Philippines avec une présence jusqu'en Polynésie et du sud du Japon à la Nouvelle-Calédonie[1],[2].
-Le poisson-cocher noir apprécie les zones riches en corail et peu profondes des lagons et pentes récifales externes soit de la surface à 30 mètres de profondeur[1],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poisson-cocher noir est présent dans les eaux tropicales et subtropicales de la zone centrale du bassin Indo-Pacifique soit de l'Indonésie aux Philippines avec une présence jusqu'en Polynésie et du sud du Japon à la Nouvelle-Calédonie,.
+Le poisson-cocher noir apprécie les zones riches en corail et peu profondes des lagons et pentes récifales externes soit de la surface à 30 mètres de profondeur,.
 </t>
         </is>
       </c>
@@ -584,10 +600,12 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le poisson-cocher noir est solitaire mais peut vivre en couple voire en petits groupes[4],[1].
-Son régime alimentaire est varié et se compose tout aussi bien de polypes coralliens que de divers invertébrés benthiques[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poisson-cocher noir est solitaire mais peut vivre en couple voire en petits groupes,.
+Son régime alimentaire est varié et se compose tout aussi bien de polypes coralliens que de divers invertébrés benthiques.
 </t>
         </is>
       </c>
@@ -616,9 +634,11 @@
           <t>Statut de conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce ne fait face à aucune menace importante en-dehors d'une collecte occasionnelle pour l'aquariophilie dans certaines zones géographiques, le poisson-cocher fantôme est toutefois classée en "préoccupation mineure" (LC) par l'UICN[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce ne fait face à aucune menace importante en-dehors d'une collecte occasionnelle pour l'aquariophilie dans certaines zones géographiques, le poisson-cocher fantôme est toutefois classée en "préoccupation mineure" (LC) par l'UICN.
 </t>
         </is>
       </c>
